--- a/Medium Instances/Medium4.xlsx
+++ b/Medium Instances/Medium4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Medium Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC181460-30BA-674A-B80C-A24ABDA78948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB67EE-EF48-4FEE-9C17-5FD1F5DD79FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1113,21 +1111,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,54 +1169,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B8" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F17" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K17" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1243,54 +1243,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1317,54 +1319,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>58</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1388,54 +1392,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C27" si="4">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C5:C27" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D26" si="5">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D5:D26" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H27" si="6">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H5:H27" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I26" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I5:I26" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" ref="M5">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1459,54 +1465,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="5"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
-        <f t="shared" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" ref="M6">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1530,54 +1538,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
-        <f>_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
-        <f>_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E8" si="8">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E7:E8" ca="1" si="10">C7*111.021</f>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F8" si="9">D7*111.021</f>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ref="F7:F8" ca="1" si="11">D7*111.021</f>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
-        <f>_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
-        <f>_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ref="J7:J8" si="10">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J7:J8" ca="1" si="12">H7*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7:K8" si="11">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <f t="shared" ref="K7:K8" ca="1" si="13">I7*111.021</f>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
-        <f t="array" ref="M7">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1592,54 +1602,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8" si="12">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D8" ca="1" si="14">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6704.4084226710002</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
-        <f t="shared" ref="I8" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I8" ca="1" si="15">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="10"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="11"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
-        <f t="array" ref="M8">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>60</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1654,56 +1666,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ref="B7:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <f t="shared" ref="B9:B27" ca="1" si="16">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ref="G7:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G9:G27" ca="1" si="17">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1715,48 +1727,48 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1764,7 +1776,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1776,48 +1788,48 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.290962</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1825,7 +1837,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1838,56 +1850,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1902,204 +1914,204 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -2107,51 +2119,51 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2159,111 +2171,111 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <f t="shared" ref="E18:F27" ca="1" si="18">C18*111.021</f>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <f t="shared" ref="J18:K27" ca="1" si="19">H18*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2279,56 +2291,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Straume</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2346,48 +2358,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Årstad</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2395,7 +2407,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2413,56 +2425,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2486,56 +2498,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2559,56 +2571,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2633,56 +2645,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2691,61 +2703,61 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="18">S25+7</f>
+        <f t="shared" ref="T25:T47" si="20">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="19">S25+4</f>
+        <f t="shared" ref="U25:U47" si="21">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="20">S25+8</f>
+        <f t="shared" ref="V25:V47" si="22">S25+8</f>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
@@ -2761,68 +2773,68 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Knappskog</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <f t="shared" ref="D27" ca="1" si="23">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.382877999999998</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>561.31429350899998</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I27" ca="1" si="24">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2831,19 +2843,19 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2859,19 +2871,19 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2887,19 +2899,19 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2915,19 +2927,19 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2943,19 +2955,19 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2971,19 +2983,19 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2999,19 +3011,19 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3025,19 +3037,19 @@
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3053,19 +3065,19 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3081,19 +3093,19 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -3109,19 +3121,19 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -3137,19 +3149,19 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3165,19 +3177,19 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -3191,19 +3203,19 @@
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -3219,19 +3231,19 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -3247,19 +3259,19 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -3275,19 +3287,19 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3303,19 +3315,19 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -3323,19 +3335,19 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -3343,19 +3355,19 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -3363,19 +3375,19 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -3393,9 +3405,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3415,7 +3427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3487,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3574,18 +3586,18 @@
       <selection activeCell="N25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3701,7 +3713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -3775,7 +3787,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3988,7 +4000,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -4014,30 +4026,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4049,56 +4061,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4110,56 +4122,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4171,56 +4183,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4232,56 +4244,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4294,56 +4306,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4358,7 +4370,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4410,29 +4422,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4459,84 +4471,84 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4563,62 +4575,62 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4644,55 +4656,55 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4719,7 +4731,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4735,29 +4747,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4784,7 +4796,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4802,7 +4814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -4828,30 +4840,30 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4869,56 +4881,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4942,56 +4954,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5015,56 +5027,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5089,56 +5101,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5159,29 +5171,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5208,7 +5220,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -5229,7 +5241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -5257,7 +5269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -5285,7 +5297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -5313,7 +5325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -5341,7 +5353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -5369,7 +5381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5397,7 +5409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -5425,7 +5437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -5451,7 +5463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -5479,7 +5491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -5507,7 +5519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -5535,7 +5547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -5563,7 +5575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -5591,7 +5603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -5617,7 +5629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -5645,7 +5657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -5673,7 +5685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -5701,7 +5713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -5729,7 +5741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -5789,7 +5801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -5806,18 +5818,18 @@
       <selection activeCell="N19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5933,7 +5945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5945,7 +5957,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -6007,7 +6019,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -6078,7 +6090,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -6149,7 +6161,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -6220,29 +6232,29 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6269,7 +6281,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6281,56 +6293,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6342,56 +6354,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6403,56 +6415,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6464,56 +6476,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6526,56 +6538,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6590,7 +6602,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -6616,55 +6628,55 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6691,267 +6703,267 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6967,7 +6979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -6992,7 +7004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -7017,7 +7029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -7048,7 +7060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -7079,7 +7091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -7111,7 +7123,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -7139,7 +7151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -7167,7 +7179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -7195,7 +7207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -7223,7 +7235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -7251,7 +7263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -7279,7 +7291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -7307,7 +7319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -7335,7 +7347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -7363,7 +7375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -7389,7 +7401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -7417,7 +7429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -7445,7 +7457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -7473,7 +7485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -7501,7 +7513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -7529,7 +7541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -7555,7 +7567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7583,7 +7595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -7611,7 +7623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -7639,7 +7651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7667,7 +7679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -7687,7 +7699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7727,7 +7739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7744,18 +7756,18 @@
       <selection activeCell="H27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -7871,7 +7883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -7883,7 +7895,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -7945,7 +7957,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -8087,7 +8099,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -8158,56 +8170,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B5:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C5:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G5:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H5:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ref="I5:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8219,56 +8231,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8280,7 +8292,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -8341,56 +8353,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8402,29 +8414,29 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8451,7 +8463,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8464,56 +8476,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8528,29 +8540,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8577,62 +8589,62 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -8658,85 +8670,85 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -8746,7 +8758,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -8756,7 +8768,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -8779,7 +8791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -8804,7 +8816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -8829,7 +8841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -8860,7 +8872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8891,7 +8903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -8923,7 +8935,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8951,7 +8963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -8979,7 +8991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -9007,7 +9019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -9035,7 +9047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -9063,7 +9075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -9091,7 +9103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -9119,7 +9131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -9147,7 +9159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -9175,7 +9187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -9201,7 +9213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -9229,7 +9241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -9257,7 +9269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -9285,7 +9297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -9313,7 +9325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -9341,7 +9353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -9367,7 +9379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9395,7 +9407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -9423,7 +9435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -9451,7 +9463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -9479,7 +9491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -9499,7 +9511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -9519,7 +9531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -9539,7 +9551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -9556,18 +9568,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9611,7 +9623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -9683,7 +9695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -9757,7 +9769,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9828,32 +9840,32 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B4:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C4:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G4:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Årstad</v>
       </c>
       <c r="H5" s="6">
@@ -9861,7 +9873,7 @@
         <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I4:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
@@ -9877,7 +9889,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9898,7 +9910,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -9924,30 +9936,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9968,29 +9980,29 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10017,7 +10029,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10029,56 +10041,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10090,56 +10102,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10151,29 +10163,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10200,7 +10212,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10212,56 +10224,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10274,56 +10286,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10338,29 +10350,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10387,11 +10399,11 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -10400,7 +10412,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -10410,7 +10422,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -10420,7 +10432,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -10430,7 +10442,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -10453,7 +10465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -10478,7 +10490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -10503,7 +10515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -10534,7 +10546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -10565,7 +10577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -10597,7 +10609,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -10625,7 +10637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -10653,7 +10665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -10681,7 +10693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -10709,7 +10721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -10737,7 +10749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -10765,7 +10777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -10793,7 +10805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -10821,7 +10833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -10849,7 +10861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -10875,7 +10887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -10903,7 +10915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -10931,7 +10943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -10959,7 +10971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -10987,7 +10999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -11015,7 +11027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -11041,7 +11053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -11069,7 +11081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -11097,7 +11109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -11125,7 +11137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -11153,7 +11165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -11173,7 +11185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -11193,7 +11205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -11213,7 +11225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -11230,18 +11242,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11285,7 +11297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -11357,7 +11369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -11431,56 +11443,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11501,56 +11513,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11571,29 +11583,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11620,7 +11632,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11641,7 +11653,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -11667,30 +11679,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11702,29 +11714,29 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11751,7 +11763,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11763,56 +11775,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11824,56 +11836,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -11885,7 +11897,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -11911,30 +11923,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -11947,7 +11959,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11968,8 +11980,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -11978,7 +11990,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -11988,7 +12000,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -11998,7 +12010,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -12008,7 +12020,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -12031,7 +12043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -12056,7 +12068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -12081,7 +12093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -12112,7 +12124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -12143,7 +12155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -12175,7 +12187,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -12203,7 +12215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -12231,7 +12243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -12259,7 +12271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -12287,7 +12299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -12315,7 +12327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -12343,7 +12355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -12371,7 +12383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -12399,7 +12411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -12427,7 +12439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -12453,7 +12465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -12481,7 +12493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -12509,7 +12521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -12537,7 +12549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -12565,7 +12577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -12593,7 +12605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -12619,7 +12631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -12647,7 +12659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -12675,7 +12687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -12703,7 +12715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -12731,7 +12743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -12751,7 +12763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -12771,7 +12783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -12791,7 +12803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -12811,19 +12823,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12867,7 +12879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -12939,7 +12951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -13013,56 +13025,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13083,56 +13095,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13153,56 +13165,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13223,7 +13235,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -13241,7 +13253,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -13259,7 +13271,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -13277,7 +13289,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -13295,7 +13307,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -13314,7 +13326,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -13335,12 +13347,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -13349,7 +13361,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -13359,7 +13371,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -13369,7 +13381,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -13379,7 +13391,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -13402,7 +13414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -13427,7 +13439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -13452,7 +13464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -13483,7 +13495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -13514,7 +13526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -13546,7 +13558,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -13574,7 +13586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -13602,7 +13614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -13630,7 +13642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -13658,7 +13670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -13686,7 +13698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -13714,7 +13726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -13742,7 +13754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -13770,7 +13782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -13798,7 +13810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -13824,7 +13836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -13852,7 +13864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -13880,7 +13892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -13908,7 +13920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -13936,7 +13948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -13964,7 +13976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -13990,7 +14002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -14018,7 +14030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -14046,7 +14058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -14074,7 +14086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -14102,7 +14114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -14122,7 +14134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -14142,7 +14154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -14162,7 +14174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -14179,15 +14191,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -14207,82 +14219,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -14290,7 +14302,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -14301,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -14312,7 +14324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -14323,7 +14335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -14334,7 +14346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14345,7 +14357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -14356,7 +14368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -14367,7 +14379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -14378,7 +14390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -14400,7 +14412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -14411,7 +14423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -14422,7 +14434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -14433,7 +14445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -14444,7 +14456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -14469,9 +14481,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -14486,7 +14498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -14503,7 +14515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -14520,7 +14532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -14537,7 +14549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -14554,7 +14566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -14571,7 +14583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -14591,7 +14603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -14611,7 +14623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -14631,7 +14643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -14651,7 +14663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -14671,7 +14683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -14691,7 +14703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -14711,7 +14723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -14731,7 +14743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -14751,7 +14763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -14789,7 +14801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -14809,7 +14821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -14829,7 +14841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -14849,7 +14861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -14869,7 +14881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -14887,7 +14899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -14907,7 +14919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -14927,7 +14939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -14947,7 +14959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -14967,7 +14979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -14987,7 +14999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -15007,7 +15019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>

--- a/Medium Instances/Medium4.xlsx
+++ b/Medium Instances/Medium4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB67EE-EF48-4FEE-9C17-5FD1F5DD79FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675B9D9-9483-4179-B214-116DC7102F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId9"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1195,30 +1195,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1249,50 +1249,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1325,50 +1325,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1398,50 +1398,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C27" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D26" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H27" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I26" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1491,30 +1491,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1544,50 +1544,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E8" ca="1" si="10">C7*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F8" ca="1" si="11">D7*111.021</f>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J8" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K8" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1608,23 +1608,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8" ca="1" si="14">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1672,23 +1672,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="16">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="17">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1794,50 +1794,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1856,50 +1856,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1920,50 +1920,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,50 +1972,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2024,50 +2024,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2076,50 +2076,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2128,23 +2128,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2180,23 +2180,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="18">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2252,30 +2252,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2297,23 +2297,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2364,50 +2364,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2431,50 +2431,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2504,50 +2504,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2577,50 +2577,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2651,50 +2651,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2721,50 +2721,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2791,50 +2791,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="23">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="24">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4026,30 +4026,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4067,50 +4067,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4128,23 +4128,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4189,23 +4189,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4250,50 +4250,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4312,50 +4312,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4376,50 +4376,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,50 +4428,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4480,50 +4480,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4552,30 +4552,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4584,23 +4584,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4636,50 +4636,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4688,50 +4688,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4753,50 +4753,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4820,23 +4820,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4887,50 +4887,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4960,50 +4960,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5033,23 +5033,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5107,50 +5107,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5177,50 +5177,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6238,50 +6238,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6299,50 +6299,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6360,50 +6360,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6421,50 +6421,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6482,50 +6482,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6544,50 +6544,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6660,23 +6660,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6712,50 +6712,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6784,30 +6784,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6816,23 +6816,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6868,50 +6868,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6940,30 +6940,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8176,23 +8176,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8237,23 +8237,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8298,23 +8298,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8359,50 +8359,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8420,23 +8420,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8482,50 +8482,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8546,50 +8546,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8598,23 +8598,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8650,50 +8650,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8702,50 +8702,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9846,23 +9846,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9916,50 +9916,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9986,23 +9986,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10067,30 +10067,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10108,50 +10108,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10169,50 +10169,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10230,23 +10230,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10292,23 +10292,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10356,50 +10356,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11449,50 +11449,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -11519,50 +11519,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11589,50 +11589,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11659,50 +11659,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11720,23 +11720,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11781,23 +11781,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11903,23 +11903,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13031,50 +13031,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13101,23 +13101,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13171,50 +13171,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium4.xlsx
+++ b/Medium Instances/Medium4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902ADDC-71F5-41E4-8F53-7743DFAEF003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4038F3D-5BDB-465B-9630-EE1342E362A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium4" sheetId="13" r:id="rId1"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8967E-DDA4-AF48-907C-081AAC0FA9EF}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,50 +1182,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Spjeld</v>
+        <v>Vorland</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>559.50231976800001</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1256,50 +1256,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B27" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Rongøy</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C27" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.9155160000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D27" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.507615999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1352,30 +1352,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1405,50 +1405,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Vågo</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.388821</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H27" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1478,23 +1478,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1551,50 +1551,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E8" ca="1" si="9">C7*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F8" ca="1" si="10">D7*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J8" ca="1" si="11">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K8" ca="1" si="12">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1615,50 +1615,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Landro</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>531.88684520700008</v>
+        <v>551.464510389</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6734.6472124410002</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1679,50 +1679,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Vorland</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1740,50 +1740,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1801,50 +1801,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1863,23 +1863,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Kleppe</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1927,50 +1927,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Rongøy</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1988,23 +1988,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2049,50 +2049,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2110,50 +2110,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Solsvik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2191,30 +2191,30 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2232,50 +2232,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="15">C18*111.021</f>
-        <v>570.662150688</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6698.5706054279999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="16">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2293,50 +2293,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2367,50 +2367,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>568.93444188599995</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4272962410005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2443,50 +2443,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>551.37569358899998</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6709.1102730419998</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2519,50 +2519,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>570.19997026499993</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6682.1108540100004</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2596,50 +2596,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Vågo</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388821</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>564.85408707299996</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2673,50 +2673,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Rongøy</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>568.57551099299997</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2750,23 +2750,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Arefjord</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>560.93471270999999</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6681.8976936899999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2829,50 +2829,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>570.19997026499993</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6682.1108540100004</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2908,50 +2908,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="20">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4123,50 +4123,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -4204,30 +4204,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4245,50 +4245,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4306,50 +4306,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4387,30 +4387,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4429,50 +4429,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4493,50 +4493,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4545,23 +4545,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4597,50 +4597,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4649,50 +4649,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4701,50 +4701,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4773,30 +4773,30 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4805,50 +4805,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4890,30 +4890,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4937,23 +4937,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -5004,50 +5004,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -5077,50 +5077,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -5150,50 +5150,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -5224,23 +5224,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5294,50 +5294,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6355,23 +6355,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -6416,50 +6416,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -6477,50 +6477,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6599,50 +6599,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6681,30 +6681,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6725,23 +6725,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6777,50 +6777,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6849,30 +6849,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6881,50 +6881,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6933,50 +6933,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6985,50 +6985,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -7037,50 +7037,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8293,50 +8293,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8354,50 +8354,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8415,50 +8415,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8476,50 +8476,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8537,50 +8537,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8599,23 +8599,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8663,23 +8663,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8715,50 +8715,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8767,50 +8767,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8819,23 +8819,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -9963,23 +9963,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10033,23 +10033,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -10103,50 +10103,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10164,50 +10164,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10225,23 +10225,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10286,23 +10286,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10367,30 +10367,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10409,50 +10409,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10473,50 +10473,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11636,50 +11636,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -11706,50 +11706,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -11776,50 +11776,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11837,50 +11837,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -11898,50 +11898,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -11959,50 +11959,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12020,50 +12020,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13148,50 +13148,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -13218,23 +13218,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13288,50 +13288,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
